--- a/biology/Botanique/Helianthus_debilis/Helianthus_debilis.xlsx
+++ b/biology/Botanique/Helianthus_debilis/Helianthus_debilis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Helianthus debilis est une espèce de plantes de la famille des Asteraceae[1]. Elle est originaire des la côte est des États-Unis.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Helianthus debilis est une espèce de plantes de la famille des Asteraceae. Elle est originaire des la côte est des États-Unis.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Helianthus debilis est une plante vivace ou annuelle pouvant atteindre 2 mètres de haut.
 La tige est érigée ou décombante, se développant à partir d'une racine pivotante. Elle peut également se développer à la manière d'un couvre-sol.
@@ -546,9 +560,11 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Helianthus debilis est originaire de la côte Est des États-Unis. Elle est adaptée à des types d'habitat côtier et peut-même pousser directement sur les plages. Il tolère les lieux modérément salins mais pas une quantité excessive de brouillard salin et d'inondation. Il supporte très bien les sécheresses. Il n'a aucune difficulté à se développer dans les sols pauvres en nutriments. Il pousse facilement dans le sable[2], dans les limons ainsi que dans les sols alcalins et acides. Cette espèce est très utile car elle permet d'empêcher l'érosion des dunes de sable. Cette espèce a été introduite[3] et s'est naturalisée dans d'autres pays et sur d'autres continents.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Helianthus debilis est originaire de la côte Est des États-Unis. Elle est adaptée à des types d'habitat côtier et peut-même pousser directement sur les plages. Il tolère les lieux modérément salins mais pas une quantité excessive de brouillard salin et d'inondation. Il supporte très bien les sécheresses. Il n'a aucune difficulté à se développer dans les sols pauvres en nutriments. Il pousse facilement dans le sable, dans les limons ainsi que dans les sols alcalins et acides. Cette espèce est très utile car elle permet d'empêcher l'érosion des dunes de sable. Cette espèce a été introduite et s'est naturalisée dans d'autres pays et sur d'autres continents.
 </t>
         </is>
       </c>
@@ -577,7 +593,9 @@
           <t>État de conservation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'UICN a indiqué que cette espèce est classée « Préoccupation mineure », ce qui veut dire qu’Helianthus debilis n'est pas en danger d'extinction.
 </t>
@@ -608,7 +626,9 @@
           <t>Utilité</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce fournit un fourré pour la protection des petits oiseaux et d'autres animaux.
 </t>
@@ -639,9 +659,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Helianthus debilis contient actuellement 5 sous-espèces reconnues[4] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Helianthus debilis contient actuellement 5 sous-espèces reconnues :
 Helianthus debilis subsp. cucumerifolius
 Helianthus debilis subsp. debilis
 Helianthus debilis subsp. silvestris
@@ -674,7 +696,9 @@
           <t>Cultivars ornementaux</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Helianthus debilis est cultivée en tant que plante ornementale dans les jardins. Dès lors, plusieurs cultivars ont été créées à des fins ornementales.
 On peut notamment citer les cultivars suivants :
